--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ycy\NYCUCS\112-2\Intro2AI\HW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7D745-CAC4-4BAC-BF1C-6E7915F9C12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BFAD7C-E97A-4FB9-BA90-DBDB8102F1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,11 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -99,6 +96,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -384,7 +387,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -393,16 +396,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -428,19 +431,19 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.81</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.48</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0.71250000000000002</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>0.72260000000000002</v>
       </c>
     </row>
@@ -448,75 +451,159 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.48</v>
+      </c>
       <c r="F4" s="1">
         <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.72260000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.53</v>
+      </c>
       <c r="F5" s="1">
         <v>3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.7611</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.76129999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="F6" s="1">
         <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.7611</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.76129999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.54</v>
+      </c>
       <c r="F7" s="1">
         <v>5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.78190000000000004</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.74839999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.51</v>
+      </c>
       <c r="F8" s="1">
         <v>6</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.79349999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.54500000000000004</v>
+      </c>
       <c r="F9" s="1">
         <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.79169999999999996</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.79679999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="3">
+        <v>0.91</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="F10" s="1">
         <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.80969999999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.73229999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.57499999999999996</v>
       </c>
       <c r="F11" s="1">
         <v>9</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>0.7722</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>0.79679999999999995</v>
       </c>
     </row>
@@ -524,19 +611,19 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0.91500000000000004</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>0.59499999999999997</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>0.79310000000000003</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>0.7903</v>
       </c>
     </row>
